--- a/src/assests/IndustryDetails.xlsx
+++ b/src/assests/IndustryDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukul\IdeaJProjects\tec\src\assests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9959A1AC-2D57-460D-854C-F825DABB5835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2430DAEE-2F92-4DA8-ABB3-757652AEFB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{47FBD05E-2B62-41F3-B193-382DE05FD553}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{47FBD05E-2B62-41F3-B193-382DE05FD553}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Entrepreneurs Name</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>Bakery</t>
+  </si>
+  <si>
+    <t>Food Products</t>
+  </si>
+  <si>
+    <t>Interior Decoration</t>
+  </si>
+  <si>
+    <t>Water Technology Products</t>
   </si>
 </sst>
 </file>
@@ -667,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5D63DC-443B-4E5C-A5E8-B866F423F58C}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1045,9 @@
       <c r="C27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -1048,7 +1059,9 @@
       <c r="C28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -1060,7 +1073,9 @@
       <c r="C29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
